--- a/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
+++ b/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="21015" windowHeight="11445" activeTab="3"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="21015" windowHeight="11445" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="01 Carátula" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="250">
   <si>
     <t>Laboratorio 04 - Amplificadores avanzados</t>
   </si>
@@ -1356,6 +1356,30 @@
   </si>
   <si>
     <t>gm1-2 x M</t>
+  </si>
+  <si>
+    <t>Lo obtenido por simulación es consistente con lo estimado, sin exactitud pero en el mismo orden de magnitud</t>
+  </si>
+  <si>
+    <t>2,73E6Hz</t>
+  </si>
+  <si>
+    <t>2,71E6Hz</t>
+  </si>
+  <si>
+    <t>29,31M</t>
+  </si>
+  <si>
+    <t>877,5K</t>
+  </si>
+  <si>
+    <t>HACER</t>
+  </si>
+  <si>
+    <t>212K</t>
+  </si>
+  <si>
+    <t>64,6M</t>
   </si>
 </sst>
 </file>
@@ -1489,7 +1513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1520,6 +1544,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1973,6 +1998,120 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19571</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>135263</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>3390901</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857771" y="8324852"/>
+          <a:ext cx="8497692" cy="3381374"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>188994</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>3057525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857249" y="23221950"/>
+          <a:ext cx="7713745" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>601983</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>3494367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="9 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="31194375"/>
+          <a:ext cx="8945883" cy="3484842"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2090,6 +2229,120 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>144452</xdr:colOff>
+      <xdr:row>93</xdr:row>
+      <xdr:rowOff>3305174</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="5 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="838200" y="18030824"/>
+          <a:ext cx="6011852" cy="3305175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>675614</xdr:colOff>
+      <xdr:row>152</xdr:row>
+      <xdr:rowOff>2905125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="6 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876299" y="32689800"/>
+          <a:ext cx="7343115" cy="2886075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>195</xdr:row>
+      <xdr:rowOff>3398844</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="7 Imagen"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="866775" y="43538775"/>
+          <a:ext cx="8658225" cy="3389319"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2510,7 +2763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -2518,7 +2771,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -2531,18 +2784,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="6"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>8</v>
       </c>
@@ -2559,8 +2812,8 @@
   </sheetPr>
   <dimension ref="A1:Z221"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G172" sqref="G172"/>
+    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2573,12 +2826,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>11</v>
       </c>
@@ -2613,7 +2866,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
@@ -2643,7 +2896,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>14</v>
       </c>
@@ -2673,7 +2926,7 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
         <v>15</v>
@@ -2703,7 +2956,7 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
         <v>16</v>
@@ -2733,7 +2986,7 @@
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>17</v>
       </c>
@@ -2763,7 +3016,7 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>18</v>
       </c>
@@ -2798,17 +3051,17 @@
       <c r="Y13" s="9"/>
       <c r="Z13" s="9"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
     </row>
     <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -3525,8 +3778,8 @@
   </sheetPr>
   <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3536,12 +3789,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>94</v>
       </c>
@@ -3576,41 +3829,47 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="11"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C29" s="13"/>
+      <c r="C29" s="13" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C30" s="13"/>
+      <c r="C30" s="13" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C31" s="13"/>
+      <c r="C31" s="13" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
@@ -3621,7 +3880,9 @@
       <c r="B35" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="22" t="s">
+        <v>244</v>
+      </c>
       <c r="D35" s="5" t="s">
         <v>101</v>
       </c>
@@ -3630,7 +3891,9 @@
       <c r="B36" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C36" s="18"/>
+      <c r="C36" s="18" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
@@ -3662,7 +3925,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="18"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -3671,7 +3934,9 @@
       </c>
     </row>
     <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B50" s="18"/>
+      <c r="B50" s="18" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
@@ -3692,19 +3957,25 @@
       <c r="B90" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C90" s="13"/>
+      <c r="C90" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="13"/>
+      <c r="C91" s="13" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="13"/>
+      <c r="C92" s="13" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
@@ -3715,13 +3986,17 @@
       <c r="B96" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C96" s="18"/>
+      <c r="C96" s="22" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="18"/>
+      <c r="C97" s="13" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
@@ -3753,7 +4028,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" ht="243" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B107" s="18"/>
     </row>
     <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -3762,7 +4037,9 @@
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B111" s="18"/>
+      <c r="B111" s="18" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="113" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
@@ -3783,19 +4060,25 @@
       <c r="B118" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="C118" s="13"/>
+      <c r="C118" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C120" s="13"/>
+      <c r="C120" s="13" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
@@ -3806,13 +4089,17 @@
       <c r="B124" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C124" s="18"/>
+      <c r="C124" s="18" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C125" s="18"/>
+      <c r="C125" s="13" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
@@ -3844,7 +4131,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="18"/>
     </row>
     <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -3853,7 +4140,9 @@
       </c>
     </row>
     <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B139" s="18"/>
+      <c r="B139" s="18" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="141" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
@@ -4020,7 +4309,9 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4029,12 +4320,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>132</v>
       </c>
@@ -4069,7 +4360,7 @@
       <c r="Y5" s="9"/>
       <c r="Z5" s="9"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>133</v>
       </c>
@@ -4099,7 +4390,7 @@
       <c r="Y6" s="9"/>
       <c r="Z6" s="9"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -4157,12 +4448,12 @@
       <c r="Y8" s="9"/>
       <c r="Z8" s="9"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -4190,12 +4481,12 @@
       <c r="Y10" s="9"/>
       <c r="Z10" s="9"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
         <v>28</v>
       </c>
@@ -4203,7 +4494,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
         <v>29</v>
       </c>
@@ -4211,12 +4502,12 @@
         <v>138</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
         <v>140</v>
       </c>
@@ -4224,7 +4515,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>142</v>
       </c>
@@ -4232,7 +4523,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>144</v>
       </c>
@@ -4247,7 +4538,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" ht="263.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B94" s="18"/>
     </row>
     <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4269,32 +4560,40 @@
       <c r="B146" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C146" s="20"/>
+      <c r="C146" s="20" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C147" s="20"/>
+      <c r="C147" s="20">
+        <v>66.89</v>
+      </c>
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C148" s="20"/>
+      <c r="C148" s="20">
+        <v>53.29</v>
+      </c>
     </row>
     <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C149" s="20"/>
+      <c r="C149" s="20" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="153" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="231" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="18"/>
     </row>
     <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4303,7 +4602,9 @@
       </c>
     </row>
     <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B157" s="18"/>
+      <c r="B157" s="18" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="159" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
@@ -4346,7 +4647,9 @@
       </c>
     </row>
     <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B163" s="18"/>
+      <c r="B163" s="18" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
@@ -4377,32 +4680,40 @@
       <c r="B189" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C189" s="20"/>
+      <c r="C189" s="20" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C190" s="20"/>
+      <c r="C190" s="20">
+        <v>71.569999999999993</v>
+      </c>
     </row>
     <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="9" t="s">
         <v>152</v>
       </c>
-      <c r="C191" s="20"/>
+      <c r="C191" s="20">
+        <v>58.6</v>
+      </c>
     </row>
     <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C192" s="20"/>
+      <c r="C192" s="20" t="s">
+        <v>249</v>
+      </c>
     </row>
     <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="18"/>
     </row>
     <row r="198" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
@@ -4450,7 +4761,7 @@
   </sheetPr>
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -4459,12 +4770,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8"/>
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4497,7 +4808,7 @@
       <c r="Y4" s="9"/>
       <c r="Z4" s="9"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>168</v>
       </c>
@@ -4557,12 +4868,12 @@
       <c r="Y7" s="9"/>
       <c r="Z7" s="9"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>171</v>
       </c>

--- a/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
+++ b/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
   <si>
     <t>Laboratorio 04 - Amplificadores avanzados</t>
   </si>
@@ -26,13 +26,7 @@
     <t>Nombre de estudiante:</t>
   </si>
   <si>
-    <t>su nombre acá</t>
-  </si>
-  <si>
     <t xml:space="preserve">Fecha de Entrega:  </t>
-  </si>
-  <si>
-    <t>fecha de entrega acá</t>
   </si>
   <si>
     <t>Instrucciones:</t>
@@ -1380,6 +1374,9 @@
   </si>
   <si>
     <t>64,6M</t>
+  </si>
+  <si>
+    <t>MARIANO MOREL</t>
   </si>
 </sst>
 </file>
@@ -1513,7 +1510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1545,6 +1542,7 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="11" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2750,7 +2748,9 @@
   </sheetPr>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2768,36 +2768,36 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" s="23">
+        <v>45614</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2812,7 +2812,7 @@
   </sheetPr>
   <dimension ref="A1:Z221"/>
   <sheetViews>
-    <sheetView topLeftCell="A93" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C145" sqref="C145"/>
     </sheetView>
   </sheetViews>
@@ -2823,22 +2823,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -2868,7 +2868,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -2929,7 +2929,7 @@
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -2959,7 +2959,7 @@
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -2988,7 +2988,7 @@
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -3018,12 +3018,12 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -3053,12 +3053,12 @@
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3066,81 +3066,81 @@
     </row>
     <row r="30" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B33" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="2:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B34" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>27</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="51" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B52" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="68" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B69" s="5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="70" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="71" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B71" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="238.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3148,94 +3148,94 @@
     </row>
     <row r="98" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B101" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B102" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A104" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B106" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C106" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E106" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B107" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E107" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B108" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E108" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A110" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B111" s="9"/>
     </row>
     <row r="112" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A112" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B112" s="8"/>
     </row>
@@ -3244,13 +3244,13 @@
     </row>
     <row r="114" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B114" s="9"/>
     </row>
     <row r="115" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="231.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,89 +3258,89 @@
     </row>
     <row r="119" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C121" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B122" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B127" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E127" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C128" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E128" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="129" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B129" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C129" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="131" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B131" s="9"/>
     </row>
     <row r="132" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="134" spans="1:14" ht="232.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3348,50 +3348,50 @@
     </row>
     <row r="136" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="138" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B138" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C138" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="139" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C139" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="140" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B140" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C140" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="142" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="144" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B144" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E144" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="N144">
         <v>284.55</v>
@@ -3399,16 +3399,16 @@
     </row>
     <row r="145" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B145" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E145" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="N145" s="21">
         <v>1126000</v>
@@ -3416,16 +3416,16 @@
     </row>
     <row r="146" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C146" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E146" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N146" s="21">
         <v>4425800000</v>
@@ -3433,56 +3433,56 @@
     </row>
     <row r="148" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A148" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="149" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A149" s="11" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="150" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A150" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="151" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="152" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A152" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="154" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C154" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="155" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B155" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C155" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="156" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B156" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C156" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="158" spans="1:14" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="160" spans="1:14" ht="211.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3490,192 +3490,192 @@
     </row>
     <row r="162" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B164" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C164" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B165" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C165" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C166" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A168" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B170" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D170" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E170" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B171" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C171" s="13" t="s">
+        <v>237</v>
+      </c>
+      <c r="D171" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E171" s="13" t="s">
         <v>239</v>
-      </c>
-      <c r="D171" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E171" s="13" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B172" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C172" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D172" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E172" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A174" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B176" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A178" s="10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A179" s="11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A181" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A182" s="5"/>
       <c r="B182" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A183" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B185" s="14"/>
       <c r="C185" s="15" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D185" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E185" s="14"/>
     </row>
     <row r="186" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B186" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E186" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C186" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="D186" s="16" t="s">
-        <v>77</v>
-      </c>
-      <c r="E186" s="15" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B187" s="15" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C187" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D187" s="17"/>
       <c r="E187" s="15" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B188" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D188" s="17"/>
       <c r="E188" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A190" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B193" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="198" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -3683,65 +3683,65 @@
     </row>
     <row r="200" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="202" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B202" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C202" s="13"/>
     </row>
     <row r="203" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B203" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C203" s="13"/>
     </row>
     <row r="204" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B204" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C204" s="13"/>
     </row>
     <row r="206" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="208" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B208" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C208" s="13"/>
       <c r="D208" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E208" s="13"/>
     </row>
     <row r="209" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B209" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C209" s="13"/>
       <c r="D209" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E209" s="13"/>
     </row>
     <row r="210" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B210" s="5" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C210" s="13"/>
       <c r="D210" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E210" s="13"/>
     </row>
     <row r="212" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A212" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="214" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -3749,7 +3749,7 @@
     </row>
     <row r="216" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A216" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="218" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -3757,12 +3757,12 @@
     </row>
     <row r="220" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A220" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A221" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -3778,7 +3778,7 @@
   </sheetPr>
   <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView topLeftCell="A135" workbookViewId="0">
+    <sheetView topLeftCell="A133" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -3786,22 +3786,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -3831,7 +3831,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -3839,90 +3839,90 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B29" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B30" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B31" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B35" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B36" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B42" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B44" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="268.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -3930,102 +3930,102 @@
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B50" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A52" s="10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B90" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C90" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B91" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B92" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A94" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B96" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C96" s="22" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A99" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B100" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A102" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="103" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B103" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B104" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B105" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="243" customHeight="1" x14ac:dyDescent="0.2">
@@ -4033,102 +4033,102 @@
     </row>
     <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A114" s="19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B118" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C118" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B119" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C119" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B124" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C124" s="18" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B125" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A127" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B128" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B131" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B132" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B133" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="281.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4136,122 +4136,122 @@
     </row>
     <row r="137" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B139" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A141" s="10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="19" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C147" s="13"/>
     </row>
     <row r="148" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C148" s="13"/>
     </row>
     <row r="149" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C149" s="13"/>
     </row>
     <row r="151" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A151" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B152" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B153" s="11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B154" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="172" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B174" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C174" s="18"/>
     </row>
     <row r="175" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B175" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C175" s="18"/>
     </row>
     <row r="177" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A177" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B178" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B181" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B182" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B183" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4259,7 +4259,7 @@
     </row>
     <row r="187" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4267,7 +4267,7 @@
     </row>
     <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A191" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4275,12 +4275,12 @@
     </row>
     <row r="195" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4288,12 +4288,12 @@
     </row>
     <row r="204" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A204" s="10" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -4309,7 +4309,7 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
@@ -4317,22 +4317,22 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4362,7 +4362,7 @@
     </row>
     <row r="6" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -4420,7 +4420,7 @@
     </row>
     <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -4450,7 +4450,7 @@
     </row>
     <row r="9" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4483,59 +4483,59 @@
     </row>
     <row r="11" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="41" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B41" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A92" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="263.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4543,30 +4543,30 @@
     </row>
     <row r="96" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A96" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="97" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B97" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="146" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C146" s="20" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="147" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B147" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C147" s="20">
         <v>66.89</v>
@@ -4574,7 +4574,7 @@
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C148" s="20">
         <v>53.29</v>
@@ -4582,15 +4582,15 @@
     </row>
     <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B151" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:26" ht="231" customHeight="1" x14ac:dyDescent="0.2">
@@ -4598,17 +4598,17 @@
     </row>
     <row r="155" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A155" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A159" s="10" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
@@ -4638,55 +4638,55 @@
     </row>
     <row r="160" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A160" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A161" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="18" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A165" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B166" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B167" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A169" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B189" s="9" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="9" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C190" s="20">
         <v>71.569999999999993</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C191" s="20">
         <v>58.6</v>
@@ -4702,15 +4702,15 @@
     </row>
     <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B192" s="9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B194" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="270" customHeight="1" x14ac:dyDescent="0.2">
@@ -4718,12 +4718,12 @@
     </row>
     <row r="198" spans="1:2" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A198" s="10" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="11" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4731,7 +4731,7 @@
     </row>
     <row r="201" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4739,7 +4739,7 @@
     </row>
     <row r="205" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4767,12 +4767,12 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4780,7 +4780,7 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -4810,7 +4810,7 @@
     </row>
     <row r="5" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -4840,7 +4840,7 @@
     </row>
     <row r="7" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -4870,37 +4870,37 @@
     </row>
     <row r="8" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B39" s="5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B40" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4908,35 +4908,35 @@
     </row>
     <row r="46" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="5" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B60" s="5" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C60" s="18"/>
     </row>
     <row r="61" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B61" s="5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C61" s="18"/>
     </row>
     <row r="62" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="5" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C62" s="18"/>
     </row>
     <row r="64" spans="2:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -4944,12 +4944,12 @@
     </row>
     <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A105" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -4957,12 +4957,12 @@
     </row>
     <row r="109" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B111" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C111" s="5">
         <v>1</v>
@@ -4970,19 +4970,19 @@
     </row>
     <row r="112" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B112" s="5" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C112" s="18"/>
     </row>
     <row r="113" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B113" s="5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C113" s="18"/>
     </row>
     <row r="115" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A115" s="10" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -5012,37 +5012,37 @@
     </row>
     <row r="116" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A116" s="11" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="117" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A117" s="11" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="119" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A119" s="5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="120" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B120" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="121" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B121" s="5" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="123" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B123" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A158" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5050,17 +5050,17 @@
     </row>
     <row r="162" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A162" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A189" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5068,12 +5068,12 @@
     </row>
     <row r="193" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="220" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A220" s="5" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="222" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -5081,7 +5081,7 @@
     </row>
     <row r="224" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A224" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
@@ -5111,12 +5111,12 @@
     </row>
     <row r="225" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A225" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A227" s="5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5124,7 +5124,7 @@
     </row>
     <row r="231" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A231" s="5" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5132,12 +5132,12 @@
     </row>
     <row r="235" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A235" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B236" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -5145,7 +5145,7 @@
     </row>
     <row r="240" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B240" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="242" spans="2:2" ht="12.75" x14ac:dyDescent="0.2">

--- a/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
+++ b/DA/[Diseño Analógico] Lab 04 - MOREL.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="270" yWindow="525" windowWidth="21015" windowHeight="11445" activeTab="4"/>
+    <workbookView xWindow="270" yWindow="525" windowWidth="21015" windowHeight="11445" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="01 Carátula" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="254">
   <si>
     <t>Laboratorio 04 - Amplificadores avanzados</t>
   </si>
@@ -1361,22 +1361,37 @@
     <t>2,71E6Hz</t>
   </si>
   <si>
-    <t>29,31M</t>
-  </si>
-  <si>
-    <t>877,5K</t>
-  </si>
-  <si>
-    <t>HACER</t>
-  </si>
-  <si>
-    <t>212K</t>
-  </si>
-  <si>
-    <t>64,6M</t>
-  </si>
-  <si>
     <t>MARIANO MOREL</t>
+  </si>
+  <si>
+    <t>877,5Khz</t>
+  </si>
+  <si>
+    <t>29,31Mhz</t>
+  </si>
+  <si>
+    <t>66,89º</t>
+  </si>
+  <si>
+    <t>53,29dB</t>
+  </si>
+  <si>
+    <t>212Khz</t>
+  </si>
+  <si>
+    <t>64,6Mhz</t>
+  </si>
+  <si>
+    <t>71,57º</t>
+  </si>
+  <si>
+    <t>58,6dB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las diferencias: la ganancia y el la UGF, que son ligeramente menores que en el OTA. En cuanto a la diferencia de ganancia, se debe a la configuracion del amplificador, donde hay ingerencia de las resistencias utilizadas, que a su vez estan en paralelo con las resistencias de salida de la primer etapa, del modelo interno, sumado la atenuacion en el sensado del common-mode. En cuanto al UGF, el cual es menor en este caso, hay ingerencia a las capacidades de carga (ahora son 2) y la configuración del amplificador, que afecta el beta debido a las resistencias de 10M. Los capacitores (c0 y c1) del divisor interno, tambien influyen.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiene como función analizar la estabilidad (single-ended) del lazo de realimentación de modo comun. Sirve para cortar el lazo antes de entrar a los gates. </t>
   </si>
 </sst>
 </file>
@@ -1589,10 +1604,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>704850</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="3114675" cy="2228850"/>
     <xdr:pic>
@@ -1607,6 +1622,10 @@
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="2752725"/>
+          <a:ext cx="3114675" cy="2228850"/>
+        </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
@@ -2749,7 +2768,7 @@
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2768,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -2812,8 +2831,8 @@
   </sheetPr>
   <dimension ref="A1:Z221"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C145" sqref="C145"/>
+    <sheetView topLeftCell="A169" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3778,7 +3797,7 @@
   </sheetPr>
   <dimension ref="A1:Z205"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
+    <sheetView topLeftCell="A103" workbookViewId="0">
       <selection activeCell="B139" sqref="B139"/>
     </sheetView>
   </sheetViews>
@@ -4309,8 +4328,8 @@
   </sheetPr>
   <dimension ref="A1:Z209"/>
   <sheetViews>
-    <sheetView topLeftCell="A211" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C193" sqref="C193"/>
+    <sheetView tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B163" sqref="B163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4568,16 +4587,16 @@
       <c r="B147" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C147" s="20">
-        <v>66.89</v>
+      <c r="C147" s="20" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="148" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B148" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C148" s="20">
-        <v>53.29</v>
+      <c r="C148" s="20" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="149" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4585,7 +4604,7 @@
         <v>151</v>
       </c>
       <c r="C149" s="20" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
@@ -4603,7 +4622,7 @@
     </row>
     <row r="157" spans="1:26" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B157" s="18" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="159" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
@@ -4648,7 +4667,7 @@
     </row>
     <row r="163" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B163" s="18" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4681,23 +4700,23 @@
         <v>148</v>
       </c>
       <c r="C189" s="20" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B190" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C190" s="20">
-        <v>71.569999999999993</v>
+      <c r="C190" s="20" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B191" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="C191" s="20">
-        <v>58.6</v>
+      <c r="C191" s="20" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
@@ -4705,7 +4724,7 @@
         <v>151</v>
       </c>
       <c r="C192" s="20" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="12.75" x14ac:dyDescent="0.2">
@@ -4761,7 +4780,7 @@
   </sheetPr>
   <dimension ref="A1:Z242"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
